--- a/Estimados-Potencial-Renta.xlsx
+++ b/Estimados-Potencial-Renta.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="5823 Hill Mar Dr" sheetId="11" state="hidden" r:id="rId11"/>
     <sheet name="Template Copy" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Template Copy1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Template Copy2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Template Copy3" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Template Copy4" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -31,7 +34,7 @@
     <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -84,16 +87,76 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF9C5700"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="16"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -199,12 +262,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -254,10 +345,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -547,15 +666,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="25.6640625" customWidth="1" min="1" max="1"/>
+    <col width="32.6640625" customWidth="1" min="1" max="1"/>
     <col width="33.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24.77734375" customWidth="1" min="3" max="3"/>
     <col width="24.88671875" bestFit="1" customWidth="1" min="4" max="4"/>
@@ -569,17 +688,17 @@
           <t>Tipo de Propiedad</t>
         </is>
       </c>
-      <c r="B1" s="26" t="n"/>
+      <c r="B1" s="33" t="n"/>
       <c r="C1" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">Precio </t>
         </is>
       </c>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="D1" s="35" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -587,17 +706,21 @@
           <t>Calle</t>
         </is>
       </c>
-      <c r="B2" s="22" t="n"/>
+      <c r="B2" s="34" t="n"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Tamano (sqft)</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="D2" s="34" t="n"/>
+      <c r="E2" s="40" t="inlineStr">
+        <is>
+          <t>Pass on a POST request</t>
+        </is>
+      </c>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -605,17 +728,17 @@
           <t>Barrio</t>
         </is>
       </c>
-      <c r="B3" s="22" t="n"/>
+      <c r="B3" s="34" t="n"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Costos de Cierre</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="D3" s="36" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -623,21 +746,17 @@
           <t>Ciudad (County)</t>
         </is>
       </c>
-      <c r="B4" s="22" t="n"/>
+      <c r="B4" s="34" t="n"/>
       <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Costos de Reparacion</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>* Estimado poco certero</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="D4" s="36" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="28" t="inlineStr">
@@ -645,27 +764,27 @@
           <t>Estado</t>
         </is>
       </c>
-      <c r="B5" s="22" t="n"/>
+      <c r="B5" s="34" t="n"/>
       <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Otros Costos</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="D5" s="36" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="29" t="inlineStr">
@@ -676,8 +795,8 @@
       <c r="B7" s="23" t="n"/>
       <c r="C7" s="23" t="n"/>
       <c r="D7" s="23" t="n"/>
-      <c r="E7" s="24" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="E7" s="39" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="29" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -701,17 +820,17 @@
           <t>Valor de Alquiler</t>
         </is>
       </c>
-      <c r="D8" s="30" t="inlineStr">
+      <c r="D8" s="38" t="inlineStr">
         <is>
           <t>Area Construida (sqft)</t>
         </is>
       </c>
-      <c r="E8" s="30" t="inlineStr">
+      <c r="E8" s="42" t="inlineStr">
         <is>
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -727,14 +846,14 @@
       <c r="A9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="8">
+      <c r="B9" s="43" t="n"/>
+      <c r="C9" s="44" t="n"/>
+      <c r="D9" s="45" t="n"/>
+      <c r="E9" s="41">
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -750,14 +869,14 @@
       <c r="A10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="9" t="n"/>
-      <c r="E10" s="8">
+      <c r="B10" s="43" t="n"/>
+      <c r="C10" s="44" t="n"/>
+      <c r="D10" s="45" t="n"/>
+      <c r="E10" s="41">
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -773,14 +892,14 @@
       <c r="A11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="8">
+      <c r="B11" s="43" t="n"/>
+      <c r="C11" s="44" t="n"/>
+      <c r="D11" s="45" t="n"/>
+      <c r="E11" s="41">
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -796,14 +915,14 @@
       <c r="A12" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
-      <c r="E12" s="8">
+      <c r="B12" s="43" t="n"/>
+      <c r="C12" s="44" t="n"/>
+      <c r="D12" s="45" t="n"/>
+      <c r="E12" s="41">
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -819,14 +938,14 @@
       <c r="A13" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
-      <c r="E13" s="8">
+      <c r="B13" s="43" t="n"/>
+      <c r="C13" s="44" t="n"/>
+      <c r="D13" s="45" t="n"/>
+      <c r="E13" s="41">
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -842,191 +961,191 @@
       <c r="A14" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="8">
+      <c r="B14" s="43" t="n"/>
+      <c r="C14" s="44" t="n"/>
+      <c r="D14" s="45" t="n"/>
+      <c r="E14" s="41">
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
-      <c r="E15" s="8">
+      <c r="B15" s="43" t="n"/>
+      <c r="C15" s="44" t="n"/>
+      <c r="D15" s="45" t="n"/>
+      <c r="E15" s="41">
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="8">
+      <c r="B16" s="43" t="n"/>
+      <c r="C16" s="44" t="n"/>
+      <c r="D16" s="45" t="n"/>
+      <c r="E16" s="41">
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="8">
+      <c r="B17" s="43" t="n"/>
+      <c r="C17" s="44" t="n"/>
+      <c r="D17" s="45" t="n"/>
+      <c r="E17" s="41">
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="8">
+      <c r="B18" s="43" t="n"/>
+      <c r="C18" s="44" t="n"/>
+      <c r="D18" s="45" t="n"/>
+      <c r="E18" s="41">
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="29" t="inlineStr">
         <is>
           <t>PPAM^2</t>
         </is>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="41">
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="29" t="inlineStr">
         <is>
           <t>PEA</t>
         </is>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="41">
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="29" t="inlineStr">
         <is>
           <t>PBN</t>
         </is>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="41">
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="29" t="inlineStr">
         <is>
           <t>PMN</t>
         </is>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="41">
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="11" t="inlineStr">
+      <c r="A24" s="37" t="inlineStr">
         <is>
           <t>POI</t>
         </is>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="41">
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="B25" s="40" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
@@ -1034,13 +1153,13 @@
           <t>2929 WHISPERING TRAILS Drive WINTER HAVEN, FL 33884-1848</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="20" t="inlineStr">
@@ -1048,53 +1167,84 @@
           <t>https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
+    </row>
+    <row r="34" ht="21" customHeight="1">
+      <c r="A34" s="47" t="inlineStr">
+        <is>
+          <t>Input from user</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="17.4" customHeight="1">
+      <c r="A35" s="46" t="inlineStr">
+        <is>
+          <t>Output from RentcastAPI</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Se va a usar en el loop que cacula el PAM^2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="22.8" customHeight="1">
+      <c r="A36" s="48" t="inlineStr">
+        <is>
+          <t>OutputAnalysis</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Loop que calcule el PAM^2 y anada resultado a una lista</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1147,10 +1297,10 @@
       <c r="D1" s="3" t="n">
         <v>285000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -1171,10 +1321,10 @@
       <c r="D2" s="2" t="n">
         <v>99.95999999999999</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -1195,10 +1345,10 @@
       <c r="D3" s="3" t="n">
         <v>13500</v>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -1219,14 +1369,14 @@
       <c r="D4" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -1247,20 +1397,20 @@
       <c r="D5" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -1272,7 +1422,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -1306,7 +1456,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -1337,7 +1487,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -1368,7 +1518,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -1399,7 +1549,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -1430,7 +1580,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -1461,7 +1611,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -1492,9 +1642,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -1515,9 +1665,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -1538,9 +1688,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -1561,9 +1711,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -1584,19 +1734,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -1608,12 +1758,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -1625,12 +1775,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -1642,12 +1792,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -1659,12 +1809,12 @@
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -1676,92 +1826,92 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="A27" s="40" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="A28" s="40" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1814,10 +1964,10 @@
       <c r="D1" s="3" t="n">
         <v>260000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -1838,10 +1988,10 @@
       <c r="D2" s="2" t="n">
         <v>100.33</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -1862,10 +2012,10 @@
       <c r="D3" s="3" t="n">
         <v>13500</v>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -1886,14 +2036,14 @@
       <c r="D4" s="3" t="n">
         <v>15000</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -1914,20 +2064,20 @@
       <c r="D5" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -1939,7 +2089,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -1973,7 +2123,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -2004,7 +2154,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -2035,7 +2185,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -2066,7 +2216,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -2097,7 +2247,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -2128,7 +2278,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -2159,9 +2309,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -2182,9 +2332,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -2205,9 +2355,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -2228,9 +2378,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -2251,19 +2401,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -2275,12 +2425,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -2292,12 +2442,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -2309,12 +2459,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -2326,12 +2476,12 @@
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -2343,92 +2493,92 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="A27" s="40" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="A28" s="40" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2475,10 +2625,10 @@
         </is>
       </c>
       <c r="D1" s="27" t="n"/>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -2493,10 +2643,10 @@
         </is>
       </c>
       <c r="D2" s="2" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -2511,10 +2661,10 @@
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -2529,14 +2679,14 @@
         </is>
       </c>
       <c r="D4" s="3" t="n"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="28" t="inlineStr">
@@ -2551,20 +2701,20 @@
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="29" t="inlineStr">
@@ -2576,7 +2726,7 @@
       <c r="C7" s="23" t="n"/>
       <c r="D7" s="23" t="n"/>
       <c r="E7" s="24" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="29" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -2610,7 +2760,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -2641,7 +2791,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -2672,7 +2822,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -2703,7 +2853,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -2734,7 +2884,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -2765,7 +2915,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -2796,9 +2946,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -2819,9 +2969,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -2842,9 +2992,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -2865,9 +3015,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -2888,19 +3038,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -2912,12 +3062,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -2929,12 +3079,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -2946,12 +3096,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -2963,12 +3113,12 @@
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -2980,32 +3130,32 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
@@ -3013,13 +3163,13 @@
           <t>2929 WHISPERING TRAILS Drive WINTER HAVEN, FL 33884-1848</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="20" t="inlineStr">
@@ -3027,53 +3177,53 @@
           <t>https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3120,10 +3270,10 @@
         </is>
       </c>
       <c r="D1" s="27" t="n"/>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -3138,10 +3288,10 @@
         </is>
       </c>
       <c r="D2" s="2" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -3156,10 +3306,10 @@
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -3174,14 +3324,14 @@
         </is>
       </c>
       <c r="D4" s="3" t="n"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="28" t="inlineStr">
@@ -3196,20 +3346,20 @@
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="29" t="inlineStr">
@@ -3221,7 +3371,7 @@
       <c r="C7" s="23" t="n"/>
       <c r="D7" s="23" t="n"/>
       <c r="E7" s="24" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="29" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -3255,7 +3405,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -3286,7 +3436,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -3317,7 +3467,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -3348,7 +3498,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -3379,7 +3529,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -3410,7 +3560,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -3441,9 +3591,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -3464,9 +3614,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -3487,9 +3637,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -3510,9 +3660,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -3533,19 +3683,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -3557,12 +3707,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -3574,12 +3724,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -3591,12 +3741,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -3608,12 +3758,12 @@
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -3625,32 +3775,32 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
@@ -3658,13 +3808,13 @@
           <t>2929 WHISPERING TRAILS Drive WINTER HAVEN, FL 33884-1848</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="20" t="inlineStr">
@@ -3672,53 +3822,2050 @@
           <t>https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A28" display="https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="25.6640625" customWidth="1" min="1" max="1"/>
+    <col width="33.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="24.77734375" customWidth="1" min="3" max="3"/>
+    <col width="24.88671875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="47.77734375" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>Tipo de Propiedad</t>
+        </is>
+      </c>
+      <c r="B1" s="26" t="n"/>
+      <c r="C1" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Precio </t>
+        </is>
+      </c>
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Calle</t>
+        </is>
+      </c>
+      <c r="B2" s="22" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Tamano (sqft)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Barrio</t>
+        </is>
+      </c>
+      <c r="B3" s="22" t="n"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Costos de Cierre</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ciudad (County)</t>
+        </is>
+      </c>
+      <c r="B4" s="22" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Costos de Reparacion</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="40" t="inlineStr">
+        <is>
+          <t>* Estimado poco certero</t>
+        </is>
+      </c>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="28" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B5" s="22" t="n"/>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Otros Costos</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>Comparables</t>
+        </is>
+      </c>
+      <c r="B7" s="23" t="n"/>
+      <c r="C7" s="23" t="n"/>
+      <c r="D7" s="23" t="n"/>
+      <c r="E7" s="24" t="n"/>
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="29" t="inlineStr">
+        <is>
+          <t>Leyenda</t>
+        </is>
+      </c>
+      <c r="H7" s="24" t="n"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B8" s="30" t="inlineStr">
+        <is>
+          <t>Identificacion de la Propiedad</t>
+        </is>
+      </c>
+      <c r="C8" s="30" t="inlineStr">
+        <is>
+          <t>Valor de Alquiler</t>
+        </is>
+      </c>
+      <c r="D8" s="30" t="inlineStr">
+        <is>
+          <t>Area Construida (sqft)</t>
+        </is>
+      </c>
+      <c r="E8" s="30" t="inlineStr">
+        <is>
+          <t>PAM^2</t>
+        </is>
+      </c>
+      <c r="F8" s="40" t="n"/>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>PAM^2</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Precio de alquiler x metro cuadrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>2305 Norlinda Ave</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>2570</v>
+      </c>
+      <c r="E9" s="8">
+        <f>C9/D9</f>
+        <v/>
+      </c>
+      <c r="F9" s="40" t="n"/>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>PPAM^2</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Precio Promedio de Alquiler x Metro Cuadrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>6545 Bock Ter</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>1326</v>
+      </c>
+      <c r="E10" s="8">
+        <f>C10/D10</f>
+        <v/>
+      </c>
+      <c r="F10" s="40" t="n"/>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>PEA</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Precio Estimado de Alquiler de la propiedad</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>2200 Owens Rd</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E11" s="8">
+        <f>C11/D11</f>
+        <v/>
+      </c>
+      <c r="F11" s="40" t="n"/>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Precio Maximo de Negociacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>7318 Riverhill Rd</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>1416</v>
+      </c>
+      <c r="E12" s="8">
+        <f>C12/D12</f>
+        <v/>
+      </c>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>PBN</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Precio Bruto de Negociacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>155 Potomac Psge</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>3800</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E13" s="8">
+        <f>C13/D13</f>
+        <v/>
+      </c>
+      <c r="F13" s="40" t="n"/>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>POI</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Precio Oferta Inicial</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>737 Audrey Ln</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>2750</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>2583</v>
+      </c>
+      <c r="E14" s="8">
+        <f>C14/D14</f>
+        <v/>
+      </c>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>4 Panorama Dr</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>2680</v>
+      </c>
+      <c r="E15" s="8">
+        <f>C15/D15</f>
+        <v/>
+      </c>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>7555 Abbington Dr</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>1668</v>
+      </c>
+      <c r="E16" s="8">
+        <f>C16/D16</f>
+        <v/>
+      </c>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>145 Riverhaven Dr</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>3700</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>1387</v>
+      </c>
+      <c r="E17" s="8">
+        <f>C17/D17</f>
+        <v/>
+      </c>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>1002 Kennebec St</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1616</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>931</v>
+      </c>
+      <c r="E18" s="8">
+        <f>C18/D18</f>
+        <v/>
+      </c>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>PPAM^2</t>
+        </is>
+      </c>
+      <c r="B20" s="3">
+        <f>SUM(E9:E18)/10</f>
+        <v/>
+      </c>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>PEA</t>
+        </is>
+      </c>
+      <c r="B21" s="3">
+        <f>B20*D2</f>
+        <v/>
+      </c>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>PBN</t>
+        </is>
+      </c>
+      <c r="B22" s="3">
+        <f>(B21*100)/60%</f>
+        <v/>
+      </c>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="B23" s="3">
+        <f>B22-D3-D4</f>
+        <v/>
+      </c>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>POI</t>
+        </is>
+      </c>
+      <c r="B24" s="12">
+        <f>B23-(B23*15%)</f>
+        <v/>
+      </c>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>2929 WHISPERING TRAILS Drive WINTER HAVEN, FL 33884-1848</t>
+        </is>
+      </c>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="20" t="inlineStr">
+        <is>
+          <t>https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373</t>
+        </is>
+      </c>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A28" display="https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="32.6640625" customWidth="1" min="1" max="1"/>
+    <col width="33.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="24.77734375" customWidth="1" min="3" max="3"/>
+    <col width="24.88671875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="47.77734375" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>Tipo de Propiedad</t>
+        </is>
+      </c>
+      <c r="B1" s="33" t="n"/>
+      <c r="C1" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Precio </t>
+        </is>
+      </c>
+      <c r="D1" s="35" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Calle</t>
+        </is>
+      </c>
+      <c r="B2" s="34" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Tamano (sqft)</t>
+        </is>
+      </c>
+      <c r="D2" s="34" t="n"/>
+      <c r="E2" s="40" t="inlineStr">
+        <is>
+          <t>Pass on a POST request</t>
+        </is>
+      </c>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Barrio</t>
+        </is>
+      </c>
+      <c r="B3" s="34" t="n"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Costos de Cierre</t>
+        </is>
+      </c>
+      <c r="D3" s="36" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ciudad (County)</t>
+        </is>
+      </c>
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Costos de Reparacion</t>
+        </is>
+      </c>
+      <c r="D4" s="36" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="28" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B5" s="34" t="n"/>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Otros Costos</t>
+        </is>
+      </c>
+      <c r="D5" s="36" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>Comparables</t>
+        </is>
+      </c>
+      <c r="B7" s="23" t="n"/>
+      <c r="C7" s="23" t="n"/>
+      <c r="D7" s="23" t="n"/>
+      <c r="E7" s="39" t="n"/>
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="29" t="inlineStr">
+        <is>
+          <t>Leyenda</t>
+        </is>
+      </c>
+      <c r="H7" s="24" t="n"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B8" s="30" t="inlineStr">
+        <is>
+          <t>Identificacion de la Propiedad</t>
+        </is>
+      </c>
+      <c r="C8" s="30" t="inlineStr">
+        <is>
+          <t>Valor de Alquiler</t>
+        </is>
+      </c>
+      <c r="D8" s="38" t="inlineStr">
+        <is>
+          <t>Area Construida (sqft)</t>
+        </is>
+      </c>
+      <c r="E8" s="42" t="inlineStr">
+        <is>
+          <t>PAM^2</t>
+        </is>
+      </c>
+      <c r="F8" s="40" t="n"/>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>PAM^2</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Precio de alquiler x metro cuadrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="43" t="inlineStr">
+        <is>
+          <t>2066 Katie Ct</t>
+        </is>
+      </c>
+      <c r="C9" s="44" t="n">
+        <v>2150</v>
+      </c>
+      <c r="D9" s="45" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E9" s="41">
+        <f>C9/D9</f>
+        <v/>
+      </c>
+      <c r="F9" s="40" t="n"/>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>PPAM^2</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Precio Promedio de Alquiler x Metro Cuadrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="43" t="inlineStr">
+        <is>
+          <t>333 W Lake Howard Dr</t>
+        </is>
+      </c>
+      <c r="C10" s="44" t="n">
+        <v>1135</v>
+      </c>
+      <c r="D10" s="45" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E10" s="41">
+        <f>C10/D10</f>
+        <v/>
+      </c>
+      <c r="F10" s="40" t="n"/>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>PEA</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Precio Estimado de Alquiler de la propiedad</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="43" t="inlineStr">
+        <is>
+          <t>4124 Sophia Blvd</t>
+        </is>
+      </c>
+      <c r="C11" s="44" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D11" s="45" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E11" s="41">
+        <f>C11/D11</f>
+        <v/>
+      </c>
+      <c r="F11" s="40" t="n"/>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Precio Maximo de Negociacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="43" t="inlineStr">
+        <is>
+          <t>4777 Osprey Way</t>
+        </is>
+      </c>
+      <c r="C12" s="44" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D12" s="45" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E12" s="41">
+        <f>C12/D12</f>
+        <v/>
+      </c>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>PBN</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Precio Bruto de Negociacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="43" t="inlineStr">
+        <is>
+          <t>4894 Summerfield Cir</t>
+        </is>
+      </c>
+      <c r="C13" s="44" t="n">
+        <v>2150</v>
+      </c>
+      <c r="D13" s="45" t="n">
+        <v>2093</v>
+      </c>
+      <c r="E13" s="41">
+        <f>C13/D13</f>
+        <v/>
+      </c>
+      <c r="F13" s="40" t="n"/>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>POI</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Precio Oferta Inicial</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="43" t="inlineStr">
+        <is>
+          <t>5513 Forest Ridge Dr</t>
+        </is>
+      </c>
+      <c r="C14" s="44" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D14" s="45" t="n">
+        <v>1819</v>
+      </c>
+      <c r="E14" s="41">
+        <f>C14/D14</f>
+        <v/>
+      </c>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="43" t="inlineStr">
+        <is>
+          <t>620 Wexford Ct</t>
+        </is>
+      </c>
+      <c r="C15" s="44" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D15" s="45" t="n">
+        <v>1426</v>
+      </c>
+      <c r="E15" s="41">
+        <f>C15/D15</f>
+        <v/>
+      </c>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="43" t="inlineStr">
+        <is>
+          <t>650 Avenue C Sw Apt B</t>
+        </is>
+      </c>
+      <c r="C16" s="44" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D16" s="45" t="n">
+        <v>608</v>
+      </c>
+      <c r="E16" s="41">
+        <f>C16/D16</f>
+        <v/>
+      </c>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="43" t="inlineStr">
+        <is>
+          <t>669 Ave B</t>
+        </is>
+      </c>
+      <c r="C17" s="44" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D17" s="45" t="n">
+        <v>588</v>
+      </c>
+      <c r="E17" s="41">
+        <f>C17/D17</f>
+        <v/>
+      </c>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="43" t="inlineStr">
+        <is>
+          <t>297 Winter Ridge Blvd</t>
+        </is>
+      </c>
+      <c r="C18" s="44" t="n">
+        <v>1495</v>
+      </c>
+      <c r="D18" s="45" t="n">
+        <v>1073</v>
+      </c>
+      <c r="E18" s="41">
+        <f>C18/D18</f>
+        <v/>
+      </c>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="29" t="inlineStr">
+        <is>
+          <t>PPAM^2</t>
+        </is>
+      </c>
+      <c r="B20" s="41">
+        <f>SUM(E9:E18)/10</f>
+        <v/>
+      </c>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="29" t="inlineStr">
+        <is>
+          <t>PEA</t>
+        </is>
+      </c>
+      <c r="B21" s="41">
+        <f>B20*D2</f>
+        <v/>
+      </c>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="29" t="inlineStr">
+        <is>
+          <t>PBN</t>
+        </is>
+      </c>
+      <c r="B22" s="41">
+        <f>(B21*100)/60%</f>
+        <v/>
+      </c>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="29" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="B23" s="41">
+        <f>B22-D3-D4</f>
+        <v/>
+      </c>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="37" t="inlineStr">
+        <is>
+          <t>POI</t>
+        </is>
+      </c>
+      <c r="B24" s="41">
+        <f>B23-(B23*15%)</f>
+        <v/>
+      </c>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="40" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>2929 WHISPERING TRAILS Drive WINTER HAVEN, FL 33884-1848</t>
+        </is>
+      </c>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="20" t="inlineStr">
+        <is>
+          <t>https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373</t>
+        </is>
+      </c>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
+    </row>
+    <row r="34" ht="21" customHeight="1">
+      <c r="A34" s="47" t="inlineStr">
+        <is>
+          <t>Input from user</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="17.4" customHeight="1">
+      <c r="A35" s="46" t="inlineStr">
+        <is>
+          <t>Output from RentcastAPI</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Se va a usar en el loop que cacula el PAM^2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="22.8" customHeight="1">
+      <c r="A36" s="48" t="inlineStr">
+        <is>
+          <t>OutputAnalysis</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Loop que calcule el PAM^2 y anada resultado a una lista</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A28" display="https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="32.6640625" customWidth="1" min="1" max="1"/>
+    <col width="33.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="24.77734375" customWidth="1" min="3" max="3"/>
+    <col width="24.88671875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="47.77734375" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>Tipo de Propiedad</t>
+        </is>
+      </c>
+      <c r="B1" s="33" t="n"/>
+      <c r="C1" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Precio </t>
+        </is>
+      </c>
+      <c r="D1" s="35" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Calle</t>
+        </is>
+      </c>
+      <c r="B2" s="34" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Tamano (sqft)</t>
+        </is>
+      </c>
+      <c r="D2" s="34" t="n"/>
+      <c r="E2" s="40" t="inlineStr">
+        <is>
+          <t>Pass on a POST request</t>
+        </is>
+      </c>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Barrio</t>
+        </is>
+      </c>
+      <c r="B3" s="34" t="n"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Costos de Cierre</t>
+        </is>
+      </c>
+      <c r="D3" s="36" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ciudad (County)</t>
+        </is>
+      </c>
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Costos de Reparacion</t>
+        </is>
+      </c>
+      <c r="D4" s="36" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="28" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="B5" s="34" t="n"/>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Otros Costos</t>
+        </is>
+      </c>
+      <c r="D5" s="36" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>Comparables</t>
+        </is>
+      </c>
+      <c r="B7" s="23" t="n"/>
+      <c r="C7" s="23" t="n"/>
+      <c r="D7" s="23" t="n"/>
+      <c r="E7" s="39" t="n"/>
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="29" t="inlineStr">
+        <is>
+          <t>Leyenda</t>
+        </is>
+      </c>
+      <c r="H7" s="24" t="n"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B8" s="30" t="inlineStr">
+        <is>
+          <t>Identificacion de la Propiedad</t>
+        </is>
+      </c>
+      <c r="C8" s="30" t="inlineStr">
+        <is>
+          <t>Valor de Alquiler</t>
+        </is>
+      </c>
+      <c r="D8" s="38" t="inlineStr">
+        <is>
+          <t>Area Construida (sqft)</t>
+        </is>
+      </c>
+      <c r="E8" s="42" t="inlineStr">
+        <is>
+          <t>PAM^2</t>
+        </is>
+      </c>
+      <c r="F8" s="40" t="n"/>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>PAM^2</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Precio de alquiler x metro cuadrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="43" t="inlineStr">
+        <is>
+          <t>5022 Branchville Rd</t>
+        </is>
+      </c>
+      <c r="C9" s="44" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D9" s="45" t="n">
+        <v>792</v>
+      </c>
+      <c r="E9" s="41">
+        <f>C9/D9</f>
+        <v/>
+      </c>
+      <c r="F9" s="40" t="n"/>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>PPAM^2</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Precio Promedio de Alquiler x Metro Cuadrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="43" t="inlineStr">
+        <is>
+          <t>6036 Westchester Park Dr</t>
+        </is>
+      </c>
+      <c r="C10" s="44" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D10" s="45" t="n">
+        <v>1122</v>
+      </c>
+      <c r="E10" s="41">
+        <f>C10/D10</f>
+        <v/>
+      </c>
+      <c r="F10" s="40" t="n"/>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>PEA</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Precio Estimado de Alquiler de la propiedad</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="43" t="inlineStr">
+        <is>
+          <t>9600 Milestone Way</t>
+        </is>
+      </c>
+      <c r="C11" s="44" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D11" s="45" t="n">
+        <v>508</v>
+      </c>
+      <c r="E11" s="41">
+        <f>C11/D11</f>
+        <v/>
+      </c>
+      <c r="F11" s="40" t="n"/>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Precio Maximo de Negociacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="43" t="inlineStr">
+        <is>
+          <t>5126 Navahoe St</t>
+        </is>
+      </c>
+      <c r="C12" s="44" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D12" s="45" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E12" s="41">
+        <f>C12/D12</f>
+        <v/>
+      </c>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>PBN</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Precio Bruto de Negociacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="43" t="inlineStr">
+        <is>
+          <t>5908 Westchester Park Dr</t>
+        </is>
+      </c>
+      <c r="C13" s="44" t="n">
+        <v>3250</v>
+      </c>
+      <c r="D13" s="45" t="n">
+        <v>2091</v>
+      </c>
+      <c r="E13" s="41">
+        <f>C13/D13</f>
+        <v/>
+      </c>
+      <c r="F13" s="40" t="n"/>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>POI</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Precio Oferta Inicial</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="43" t="inlineStr">
+        <is>
+          <t>9316 St Andrews Pl</t>
+        </is>
+      </c>
+      <c r="C14" s="44" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D14" s="45" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="41">
+        <f>C14/D14</f>
+        <v/>
+      </c>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="43" t="inlineStr">
+        <is>
+          <t>9236 Limestone Pl</t>
+        </is>
+      </c>
+      <c r="C15" s="44" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D15" s="45" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E15" s="41">
+        <f>C15/D15</f>
+        <v/>
+      </c>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="43" t="inlineStr">
+        <is>
+          <t>8800 37th Ave</t>
+        </is>
+      </c>
+      <c r="C16" s="44" t="n">
+        <v>2950</v>
+      </c>
+      <c r="D16" s="45" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E16" s="41">
+        <f>C16/D16</f>
+        <v/>
+      </c>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="43" t="inlineStr">
+        <is>
+          <t>9625 Milestone Way</t>
+        </is>
+      </c>
+      <c r="C17" s="44" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D17" s="45" t="n">
+        <v>3208</v>
+      </c>
+      <c r="E17" s="41">
+        <f>C17/D17</f>
+        <v/>
+      </c>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="43" t="inlineStr">
+        <is>
+          <t>8805 49th Ave</t>
+        </is>
+      </c>
+      <c r="C18" s="44" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D18" s="45" t="n">
+        <v>2975</v>
+      </c>
+      <c r="E18" s="41">
+        <f>C18/D18</f>
+        <v/>
+      </c>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="29" t="inlineStr">
+        <is>
+          <t>PPAM^2</t>
+        </is>
+      </c>
+      <c r="B20" s="41">
+        <f>SUM(E9:E18)/10</f>
+        <v/>
+      </c>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="29" t="inlineStr">
+        <is>
+          <t>PEA</t>
+        </is>
+      </c>
+      <c r="B21" s="41">
+        <f>B20*D2</f>
+        <v/>
+      </c>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="29" t="inlineStr">
+        <is>
+          <t>PBN</t>
+        </is>
+      </c>
+      <c r="B22" s="41">
+        <f>(B21*100)/60%</f>
+        <v/>
+      </c>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="29" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="B23" s="41">
+        <f>B22-D3-D4</f>
+        <v/>
+      </c>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="37" t="inlineStr">
+        <is>
+          <t>POI</t>
+        </is>
+      </c>
+      <c r="B24" s="41">
+        <f>B23-(B23*15%)</f>
+        <v/>
+      </c>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="40" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>2929 WHISPERING TRAILS Drive WINTER HAVEN, FL 33884-1848</t>
+        </is>
+      </c>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="20" t="inlineStr">
+        <is>
+          <t>https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373</t>
+        </is>
+      </c>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
+    </row>
+    <row r="34" ht="21" customHeight="1">
+      <c r="A34" s="47" t="inlineStr">
+        <is>
+          <t>Input from user</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="17.4" customHeight="1">
+      <c r="A35" s="46" t="inlineStr">
+        <is>
+          <t>Output from RentcastAPI</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Se va a usar en el loop que cacula el PAM^2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="22.8" customHeight="1">
+      <c r="A36" s="48" t="inlineStr">
+        <is>
+          <t>OutputAnalysis</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Loop que calcule el PAM^2 y anada resultado a una lista</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3771,10 +5918,10 @@
       <c r="D1" s="3" t="n">
         <v>320000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -3795,10 +5942,10 @@
       <c r="D2" s="2" t="n">
         <v>116.5</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -3819,10 +5966,10 @@
       <c r="D3" s="3" t="n">
         <v>14254.28</v>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -3843,14 +5990,14 @@
       <c r="D4" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -3871,20 +6018,20 @@
       <c r="D5" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -3896,7 +6043,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -3930,7 +6077,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -3961,7 +6108,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -3992,7 +6139,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -4023,7 +6170,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -4054,7 +6201,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -4085,7 +6232,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -4116,9 +6263,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -4139,9 +6286,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -4162,9 +6309,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -4185,9 +6332,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -4208,19 +6355,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -4232,12 +6379,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -4249,12 +6396,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -4266,12 +6413,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -4283,12 +6430,12 @@
         <f>B22-D3-D4-D5</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -4300,92 +6447,92 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="A27" s="40" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="A28" s="40" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4443,10 +6590,10 @@
       <c r="D1" s="3" t="n">
         <v>300000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -4467,10 +6614,10 @@
       <c r="D2" s="2" t="n">
         <v>118.73</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -4491,10 +6638,10 @@
       <c r="D3" s="3" t="n">
         <v>14275</v>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -4515,14 +6662,14 @@
       <c r="D4" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -4543,20 +6690,20 @@
       <c r="D5" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -4568,7 +6715,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -4602,7 +6749,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -4633,7 +6780,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -4664,7 +6811,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -4695,7 +6842,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -4726,7 +6873,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -4757,7 +6904,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -4788,9 +6935,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -4811,9 +6958,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -4834,9 +6981,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -4857,9 +7004,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -4880,19 +7027,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -4904,12 +7051,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -4921,12 +7068,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -4938,12 +7085,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -4955,12 +7102,12 @@
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -4972,96 +7119,96 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="40" t="inlineStr">
         <is>
           <t>*NOTE: High condo fees ($230)</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="A28" s="40" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5114,10 +7261,10 @@
       <c r="D1" s="3" t="n">
         <v>265000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -5138,10 +7285,10 @@
       <c r="D2" s="2" t="n">
         <v>148.36</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -5162,10 +7309,10 @@
       <c r="D3" s="3" t="n">
         <v>14275</v>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -5186,14 +7333,14 @@
       <c r="D4" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -5214,20 +7361,20 @@
       <c r="D5" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -5239,7 +7386,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -5273,7 +7420,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -5304,7 +7451,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -5335,7 +7482,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -5366,7 +7513,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -5397,7 +7544,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -5428,7 +7575,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -5459,9 +7606,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -5482,9 +7629,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -5505,9 +7652,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -5528,9 +7675,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -5551,19 +7698,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -5575,12 +7722,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -5592,12 +7739,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -5609,12 +7756,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -5626,12 +7773,12 @@
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -5643,96 +7790,96 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="40" t="inlineStr">
         <is>
           <t>NOTE: High condo fee ($300)</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="A28" s="40" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5785,10 +7932,10 @@
       <c r="D1" s="3" t="n">
         <v>395000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -5813,7 +7960,7 @@
         <f>D1/D2</f>
         <v/>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="40">
         <f>D2/3</f>
         <v/>
       </c>
@@ -5821,7 +7968,7 @@
         <f>F2*B28</f>
         <v/>
       </c>
-      <c r="H2" s="4" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -5840,10 +7987,10 @@
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -5862,14 +8009,14 @@
         </is>
       </c>
       <c r="D4" s="3" t="n"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -5888,20 +8035,20 @@
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -5913,7 +8060,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -5947,7 +8094,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -5978,7 +8125,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -6009,7 +8156,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -6040,7 +8187,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -6071,7 +8218,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -6102,7 +8249,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -6133,9 +8280,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -6156,9 +8303,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -6179,9 +8326,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -6202,9 +8349,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -6225,9 +8372,9 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="7" t="n">
@@ -6248,9 +8395,9 @@
         <f>C19/D19</f>
         <v/>
       </c>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="7" t="n">
@@ -6271,9 +8418,9 @@
         <f>C20/D20</f>
         <v/>
       </c>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="7" t="n">
@@ -6294,9 +8441,9 @@
         <f>C21/D21</f>
         <v/>
       </c>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="7" t="n">
@@ -6317,9 +8464,9 @@
         <f>C22/D22</f>
         <v/>
       </c>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="7" t="n">
@@ -6340,9 +8487,9 @@
         <f>C23/D23</f>
         <v/>
       </c>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="7" t="n">
@@ -6363,9 +8510,9 @@
         <f>C24/D24</f>
         <v/>
       </c>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="7" t="n">
@@ -6386,29 +8533,29 @@
         <f>C25/D25</f>
         <v/>
       </c>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
+      <c r="E26" s="40" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="A27" s="40" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="5" t="inlineStr">
@@ -6423,11 +8570,11 @@
       <c r="C28" s="17" t="n">
         <v>2.3</v>
       </c>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="5" t="inlineStr">
@@ -6443,11 +8590,11 @@
         <f>$C28*$D2</f>
         <v/>
       </c>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="5" t="inlineStr">
@@ -6463,11 +8610,11 @@
         <f>$B29*$D3</f>
         <v/>
       </c>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="5" t="inlineStr">
@@ -6483,11 +8630,11 @@
         <f>$B30*$D4</f>
         <v/>
       </c>
-      <c r="D31" s="4" t="n"/>
+      <c r="D31" s="40" t="n"/>
       <c r="E31" s="10" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="inlineStr">
@@ -6503,91 +8650,91 @@
         <f>$B31*$D5</f>
         <v/>
       </c>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="13" t="n"/>
       <c r="B33" s="14" t="n"/>
-      <c r="C33" s="4" t="n"/>
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="4" t="n"/>
-      <c r="F33" s="4" t="n"/>
-      <c r="G33" s="4" t="n"/>
-      <c r="H33" s="4" t="n"/>
+      <c r="C33" s="40" t="n"/>
+      <c r="D33" s="40" t="n"/>
+      <c r="E33" s="40" t="n"/>
+      <c r="F33" s="40" t="n"/>
+      <c r="G33" s="40" t="n"/>
+      <c r="H33" s="40" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="n"/>
-      <c r="D34" s="4" t="n"/>
+      <c r="A34" s="40" t="n"/>
+      <c r="B34" s="40" t="n"/>
+      <c r="C34" s="40" t="n"/>
+      <c r="D34" s="40" t="n"/>
       <c r="E34" s="15" t="n"/>
-      <c r="F34" s="4" t="n"/>
-      <c r="G34" s="4" t="n"/>
-      <c r="H34" s="4" t="n"/>
+      <c r="F34" s="40" t="n"/>
+      <c r="G34" s="40" t="n"/>
+      <c r="H34" s="40" t="n"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="4" t="n"/>
-      <c r="B35" s="4" t="n"/>
-      <c r="C35" s="4" t="n"/>
-      <c r="D35" s="4" t="n"/>
-      <c r="E35" s="4" t="n"/>
-      <c r="F35" s="4" t="n"/>
-      <c r="G35" s="4" t="n"/>
-      <c r="H35" s="4" t="n"/>
+      <c r="A35" s="40" t="n"/>
+      <c r="B35" s="40" t="n"/>
+      <c r="C35" s="40" t="n"/>
+      <c r="D35" s="40" t="n"/>
+      <c r="E35" s="40" t="n"/>
+      <c r="F35" s="40" t="n"/>
+      <c r="G35" s="40" t="n"/>
+      <c r="H35" s="40" t="n"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="4" t="n"/>
-      <c r="B36" s="4" t="n"/>
-      <c r="C36" s="4" t="n"/>
-      <c r="D36" s="4" t="n"/>
-      <c r="E36" s="4" t="n"/>
-      <c r="F36" s="4" t="n"/>
-      <c r="G36" s="4" t="n"/>
-      <c r="H36" s="4" t="n"/>
+      <c r="A36" s="40" t="n"/>
+      <c r="B36" s="40" t="n"/>
+      <c r="C36" s="40" t="n"/>
+      <c r="D36" s="40" t="n"/>
+      <c r="E36" s="40" t="n"/>
+      <c r="F36" s="40" t="n"/>
+      <c r="G36" s="40" t="n"/>
+      <c r="H36" s="40" t="n"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="4" t="n"/>
-      <c r="B37" s="4" t="n"/>
-      <c r="C37" s="4" t="n"/>
-      <c r="D37" s="4" t="n"/>
-      <c r="E37" s="4" t="n"/>
-      <c r="F37" s="4" t="n"/>
-      <c r="G37" s="4" t="n"/>
-      <c r="H37" s="4" t="n"/>
+      <c r="A37" s="40" t="n"/>
+      <c r="B37" s="40" t="n"/>
+      <c r="C37" s="40" t="n"/>
+      <c r="D37" s="40" t="n"/>
+      <c r="E37" s="40" t="n"/>
+      <c r="F37" s="40" t="n"/>
+      <c r="G37" s="40" t="n"/>
+      <c r="H37" s="40" t="n"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="4" t="n"/>
-      <c r="B38" s="4" t="n"/>
-      <c r="C38" s="4" t="n"/>
-      <c r="D38" s="4" t="n"/>
-      <c r="E38" s="4" t="n"/>
-      <c r="F38" s="4" t="n"/>
-      <c r="G38" s="4" t="n"/>
-      <c r="H38" s="4" t="n"/>
+      <c r="A38" s="40" t="n"/>
+      <c r="B38" s="40" t="n"/>
+      <c r="C38" s="40" t="n"/>
+      <c r="D38" s="40" t="n"/>
+      <c r="E38" s="40" t="n"/>
+      <c r="F38" s="40" t="n"/>
+      <c r="G38" s="40" t="n"/>
+      <c r="H38" s="40" t="n"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="4" t="n"/>
-      <c r="B39" s="4" t="n"/>
-      <c r="C39" s="4" t="n"/>
-      <c r="D39" s="4" t="n"/>
-      <c r="E39" s="4" t="n"/>
-      <c r="F39" s="4" t="n"/>
-      <c r="G39" s="4" t="n"/>
-      <c r="H39" s="4" t="n"/>
+      <c r="A39" s="40" t="n"/>
+      <c r="B39" s="40" t="n"/>
+      <c r="C39" s="40" t="n"/>
+      <c r="D39" s="40" t="n"/>
+      <c r="E39" s="40" t="n"/>
+      <c r="F39" s="40" t="n"/>
+      <c r="G39" s="40" t="n"/>
+      <c r="H39" s="40" t="n"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="4" t="n"/>
-      <c r="B40" s="4" t="n"/>
-      <c r="C40" s="4" t="n"/>
-      <c r="D40" s="4" t="n"/>
-      <c r="E40" s="4" t="n"/>
-      <c r="F40" s="4" t="n"/>
-      <c r="G40" s="4" t="n"/>
-      <c r="H40" s="4" t="n"/>
+      <c r="A40" s="40" t="n"/>
+      <c r="B40" s="40" t="n"/>
+      <c r="C40" s="40" t="n"/>
+      <c r="D40" s="40" t="n"/>
+      <c r="E40" s="40" t="n"/>
+      <c r="F40" s="40" t="n"/>
+      <c r="G40" s="40" t="n"/>
+      <c r="H40" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6640,10 +8787,10 @@
       <c r="D1" s="3" t="n">
         <v>375000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -6664,10 +8811,10 @@
       <c r="D2" s="2" t="n">
         <v>1690</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -6688,10 +8835,10 @@
       <c r="D3" s="3" t="n">
         <v>14275</v>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -6712,14 +8859,14 @@
       <c r="D4" s="3" t="n">
         <v>15000</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -6740,20 +8887,20 @@
       <c r="D5" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -6765,7 +8912,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -6799,7 +8946,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -6830,7 +8977,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -6861,7 +9008,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -6892,7 +9039,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -6923,7 +9070,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -6954,7 +9101,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -6985,9 +9132,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -7008,9 +9155,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -7031,9 +9178,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -7054,9 +9201,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -7077,19 +9224,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -7101,12 +9248,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -7118,12 +9265,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -7135,12 +9282,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -7152,12 +9299,12 @@
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -7169,92 +9316,92 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="A27" s="40" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="A28" s="40" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7307,10 +9454,10 @@
       <c r="D1" s="3" t="n">
         <v>397000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -7331,10 +9478,10 @@
       <c r="D2" s="2" t="n">
         <v>1184</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -7355,10 +9502,10 @@
       <c r="D3" s="3" t="n">
         <v>14275</v>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -7379,14 +9526,14 @@
       <c r="D4" s="3" t="n">
         <v>15000</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -7407,20 +9554,20 @@
       <c r="D5" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -7432,7 +9579,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -7466,7 +9613,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -7497,7 +9644,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -7528,7 +9675,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -7559,7 +9706,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -7590,7 +9737,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -7621,7 +9768,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -7652,9 +9799,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -7675,9 +9822,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -7698,9 +9845,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -7721,9 +9868,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -7744,19 +9891,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -7768,12 +9915,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -7785,12 +9932,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -7802,12 +9949,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -7819,12 +9966,12 @@
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -7836,92 +9983,92 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="A27" s="40" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="A28" s="40" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7974,10 +10121,10 @@
       <c r="D1" s="3" t="n">
         <v>305000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -7998,10 +10145,10 @@
       <c r="D2" s="2" t="n">
         <v>1728</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -8020,10 +10167,10 @@
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -8042,14 +10189,14 @@
         </is>
       </c>
       <c r="D4" s="3" t="n"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -8068,20 +10215,20 @@
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -8093,7 +10240,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -8127,7 +10274,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -8150,7 +10297,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -8173,7 +10320,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -8196,7 +10343,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -8219,7 +10366,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -8242,7 +10389,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -8265,9 +10412,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -8280,9 +10427,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -8295,9 +10442,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -8310,9 +10457,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -8325,19 +10472,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
@@ -8349,12 +10496,12 @@
         <f>SUM(E9:E18)/10</f>
         <v/>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="C20" s="40" t="n"/>
+      <c r="D20" s="40" t="n"/>
+      <c r="E20" s="40" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -8366,12 +10513,12 @@
         <f>B20*D2</f>
         <v/>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="C21" s="40" t="n"/>
+      <c r="D21" s="40" t="n"/>
+      <c r="E21" s="40" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -8383,12 +10530,12 @@
         <f>(B21*100)/60%</f>
         <v/>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="C22" s="40" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -8400,12 +10547,12 @@
         <f>B22-D3-D4</f>
         <v/>
       </c>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
+      <c r="C23" s="40" t="n"/>
+      <c r="D23" s="40" t="n"/>
       <c r="E23" s="10" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="inlineStr">
@@ -8417,32 +10564,32 @@
         <f>B23-(B23*15%)</f>
         <v/>
       </c>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="C24" s="40" t="n"/>
+      <c r="D24" s="40" t="n"/>
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="14" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="C25" s="40" t="n"/>
+      <c r="D25" s="40" t="n"/>
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
+      <c r="A26" s="40" t="n"/>
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
       <c r="E26" s="15" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
@@ -8450,13 +10597,13 @@
           <t>2929 WHISPERING TRAILS Drive WINTER HAVEN, FL 33884-1848</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="20" t="inlineStr">
@@ -8464,53 +10611,53 @@
           <t>https://portal.onehome.com/es-US/property/aotf~1036966617~STELLAR?token=eyJPU04iOiJTVEVMTEFSIiwidHlwZSI6IjEiLCJjb250YWN0aWQiOjgwMTMyMDcsInNldGlkIjoiMzYwOTAxMiIsInNldGtleSI6IjUyOCIsImVtYWlsIjoiQWxwaGF2bWdAZ21haWwuY29tIiwicmVzb3VyY2VpZCI6MCwiYWdlbnRpZCI6Mzg2ODEsImlzZGVsdGEiOmZhbHNlLCJsaXN0aW5naWQiOiI2ODg4ODA3NDgiLCJWaWV3TW9kZSI6IjEifQ%3D%3D&amp;searchId=178b15e9-3432-3767-8dad-8a54a61a9373</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8567,10 +10714,10 @@
       <c r="D1" s="3" t="n">
         <v>305000</v>
       </c>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
+      <c r="E1" s="40" t="n"/>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="40" t="n"/>
+      <c r="H1" s="40" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -8591,10 +10738,10 @@
       <c r="D2" s="2" t="n">
         <v>79.70999999999999</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="E2" s="40" t="n"/>
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="40" t="n"/>
+      <c r="H2" s="40" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -8615,10 +10762,10 @@
       <c r="D3" s="3" t="n">
         <v>14275</v>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -8639,14 +10786,14 @@
       <c r="D4" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>* Estimado poco certero</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -8667,20 +10814,20 @@
       <c r="D5" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="A6" s="40" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="inlineStr">
@@ -8692,7 +10839,7 @@
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="31" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="40" t="n"/>
       <c r="G7" s="30" t="inlineStr">
         <is>
           <t>Leyenda</t>
@@ -8726,7 +10873,7 @@
           <t>PAM^2</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="40" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>PAM^2</t>
@@ -8757,7 +10904,7 @@
         <f>C9/D9</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="n"/>
+      <c r="F9" s="40" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PPAM^2</t>
@@ -8788,7 +10935,7 @@
         <f>C10/D10</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="40" t="n"/>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>PEA</t>
@@ -8819,7 +10966,7 @@
         <f>C11/D11</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="40" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>PMN</t>
@@ -8850,7 +10997,7 @@
         <f>C12/D12</f>
         <v/>
       </c>
-      <c r="F12" s="4" t="n"/>
+      <c r="F12" s="40" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>PBN</t>
@@ -8881,7 +11028,7 @@
         <f>C13/D13</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="n"/>
+      <c r="F13" s="40" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>POI</t>
@@ -8912,9 +11059,9 @@
         <f>C14/D14</f>
         <v/>
       </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -8935,9 +11082,9 @@
         <f>C15/D15</f>
         <v/>
       </c>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -8958,9 +11105,9 @@
         <f>C16/D16</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="7" t="n">
@@ -8981,9 +11128,9 @@
         <f>C17/D17</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="7" t="n">
@@ -9004,19 +11151,19 @@
         <f>C18/D18</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="40" t="n"/>
+      <c r="H18" s="40" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
+      <c r="E19" s="40" t="n"/>
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="40" t="n"/>
+      <c r="H19" s="40" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="18" t="n"/>
@@ -9040,9 +11187,9 @@
           <t>Random</t>
         </is>
       </c>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="40" t="n"/>
+      <c r="H20" s="40" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
@@ -9065,9 +11212,9 @@
       <c r="E21" s="2" t="n">
         <v>21.62</v>
       </c>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="F21" s="40" t="n"/>
+      <c r="G21" s="40" t="n"/>
+      <c r="H21" s="40" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
@@ -9091,9 +11238,9 @@
         <f>E21*$D2</f>
         <v/>
       </c>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
+      <c r="F22" s="40" t="n"/>
+      <c r="G22" s="40" t="n"/>
+      <c r="H22" s="40" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -9117,9 +11264,9 @@
         <f>(E22*100)/60%</f>
         <v/>
       </c>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
+      <c r="F23" s="40" t="n"/>
+      <c r="G23" s="40" t="n"/>
+      <c r="H23" s="40" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="inlineStr">
@@ -9143,9 +11290,9 @@
         <f>E23-$D2-$D3</f>
         <v/>
       </c>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
+      <c r="F24" s="40" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="40" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="inlineStr">
@@ -9169,89 +11316,89 @@
         <f>E24-(E24*15%)</f>
         <v/>
       </c>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
+      <c r="F25" s="40" t="n"/>
+      <c r="G25" s="40" t="n"/>
+      <c r="H25" s="40" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="n"/>
       <c r="B26" s="14" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
+      <c r="E26" s="40" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
+      <c r="A27" s="40" t="n"/>
+      <c r="B27" s="40" t="n"/>
+      <c r="C27" s="40" t="n"/>
+      <c r="D27" s="40" t="n"/>
       <c r="E27" s="15" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
+      <c r="F27" s="40" t="n"/>
+      <c r="G27" s="40" t="n"/>
+      <c r="H27" s="40" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
+      <c r="A28" s="40" t="n"/>
+      <c r="B28" s="40" t="n"/>
+      <c r="C28" s="40" t="n"/>
+      <c r="D28" s="40" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="40" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="40" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
+      <c r="A29" s="40" t="n"/>
+      <c r="B29" s="40" t="n"/>
+      <c r="C29" s="40" t="n"/>
+      <c r="D29" s="40" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="40" t="n"/>
+      <c r="G29" s="40" t="n"/>
+      <c r="H29" s="40" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
+      <c r="A30" s="40" t="n"/>
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="40" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="40" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
+      <c r="A31" s="40" t="n"/>
+      <c r="B31" s="40" t="n"/>
+      <c r="C31" s="40" t="n"/>
+      <c r="D31" s="40" t="n"/>
+      <c r="E31" s="40" t="n"/>
+      <c r="F31" s="40" t="n"/>
+      <c r="G31" s="40" t="n"/>
+      <c r="H31" s="40" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="40" t="n"/>
+      <c r="C32" s="40" t="n"/>
+      <c r="D32" s="40" t="n"/>
+      <c r="E32" s="40" t="n"/>
+      <c r="F32" s="40" t="n"/>
+      <c r="G32" s="40" t="n"/>
+      <c r="H32" s="40" t="n"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="4" t="n"/>
-      <c r="C33" s="4" t="n"/>
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="4" t="n"/>
-      <c r="F33" s="4" t="n"/>
-      <c r="G33" s="4" t="n"/>
-      <c r="H33" s="4" t="n"/>
+      <c r="A33" s="40" t="n"/>
+      <c r="B33" s="40" t="n"/>
+      <c r="C33" s="40" t="n"/>
+      <c r="D33" s="40" t="n"/>
+      <c r="E33" s="40" t="n"/>
+      <c r="F33" s="40" t="n"/>
+      <c r="G33" s="40" t="n"/>
+      <c r="H33" s="40" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
